--- a/data/trans_bre/POLIPATOLOGIA_Lim_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,40 +604,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>330,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>315,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>330,02%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>315,56%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>197,27%</t>
         </is>
@@ -668,42 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 5,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,21</t>
+          <t>2,52; 7,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 7,52</t>
+          <t>2,49; 16,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 16,19</t>
+          <t>23,8; 1698,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,2; 1036,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,28; 1695,85</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>49,43; 995,52</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>18,63; 737,68</t>
+          <t>7,52; 631,76</t>
         </is>
       </c>
     </row>
@@ -720,40 +684,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>89,51%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>104,05%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>106,56%</t>
         </is>
@@ -768,42 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 6,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 5,88</t>
+          <t>0,62; 5,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,56</t>
+          <t>-0,07; 10,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 11,23</t>
+          <t>14,03; 219,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,15; 287,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,48; 214,94</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>13,2; 262,6</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>13,74; 281,52</t>
+          <t>8,83; 246,0</t>
         </is>
       </c>
     </row>
@@ -820,40 +764,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>183,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>183,07%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>83,77%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>90,68%</t>
         </is>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,89; 13,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 13,39</t>
+          <t>1,54; 8,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,56</t>
+          <t>3,2; 11,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 11,73</t>
+          <t>100,24; 326,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,49; 190,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,99; 318,48</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>24,22; 172,92</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>33,1; 170,92</t>
+          <t>32,67; 161,61</t>
         </is>
       </c>
     </row>
@@ -920,40 +844,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,66</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,66</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,86</t>
+          <t>13,94</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,94</t>
+          <t>74,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>74,11%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>56,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>101,02%</t>
         </is>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,22; 14,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 14,0</t>
+          <t>3,22; 12,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 11,8</t>
+          <t>7,18; 22,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 23,65</t>
+          <t>34,01; 133,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,0; 102,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,81; 128,08</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>22,11; 97,56</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>34,9; 339,82</t>
+          <t>37,35; 366,83</t>
         </is>
       </c>
     </row>
@@ -1020,40 +924,30 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,45</t>
+          <t>15,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,45</t>
+          <t>11,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,95</t>
+          <t>74,83%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,32%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>74,83%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>66,32%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>43,74%</t>
         </is>
@@ -1068,42 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,61; 25,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,98; 26,15</t>
+          <t>9,17; 21,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,33; 21,6</t>
+          <t>7,24; 16,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,32; 16,18</t>
+          <t>45,0; 114,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,49; 103,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,11; 114,78</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>33,91; 105,6</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>24,09; 64,52</t>
+          <t>23,45; 66,34</t>
         </is>
       </c>
     </row>
@@ -1120,40 +1004,30 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,98</t>
+          <t>19,13</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,13</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>21,54%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>56,88%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>8,38%</t>
         </is>
@@ -1168,42 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,08; 19,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 18,4</t>
+          <t>11,71; 26,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,77; 26,38</t>
+          <t>-17,23; 20,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 19,32</t>
+          <t>5,49; 41,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,7; 88,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 39,09</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>31,37; 88,73</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-62,48; 70,77</t>
+          <t>-55,65; 73,54</t>
         </is>
       </c>
     </row>
@@ -1220,40 +1084,30 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,15</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>25,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>25,24</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>18,3%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>23,57%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>58,04%</t>
         </is>
@@ -1268,42 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,9; 20,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,16; 19,79</t>
+          <t>4,0; 19,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 19,63</t>
+          <t>19,05; 30,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,69; 30,58</t>
+          <t>6,96; 33,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,46; 42,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,42; 32,42</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>6,98; 41,42</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>41,48; 76,4</t>
+          <t>39,2; 76,45</t>
         </is>
       </c>
     </row>
@@ -1320,40 +1164,30 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,19</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,19</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>12,42</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,42</t>
+          <t>71,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>71,68%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>72,7%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>72,21%</t>
         </is>
@@ -1368,42 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,24; 14,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,12; 14,24</t>
+          <t>8,98; 12,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,72</t>
+          <t>7,28; 16,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,57; 16,34</t>
+          <t>56,77; 87,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,81; 89,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>55,85; 88,77</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>54,63; 89,46</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>44,14; 112,64</t>
+          <t>43,15; 110,98</t>
         </is>
       </c>
     </row>
@@ -1416,13 +1240,13 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
